--- a/Excel/024_Validação+de+Dados+exemplo+3.xlsx
+++ b/Excel/024_Validação+de+Dados+exemplo+3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821BB7E3-DEBE-40A3-AB38-BC62076562B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E485BEC-71FA-49B2-BFFB-53BDDFB05A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
@@ -166,10 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,61 +491,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A096B3F-3F20-4D87-A3FB-7004DAEFE5F0}">
   <dimension ref="C2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.69140625" customWidth="1"/>
+    <col min="11" max="11" width="3.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="3:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="3:18" ht="33.65" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C5" s="1">
         <v>11</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="L5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C6" s="1">
         <v>13</v>
       </c>
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C7" s="1">
         <v>14</v>
       </c>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="G8" s="1">
         <v>9</v>
@@ -593,31 +593,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="G9" s="1"/>
       <c r="L9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1"/>
       <c r="G10" s="1"/>
       <c r="L10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C11" s="1"/>
       <c r="G11" s="1"/>
       <c r="L11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="G12" s="1"/>
       <c r="L12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
       <c r="L13" s="1"/>
@@ -653,107 +653,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
   <dimension ref="C2:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.69140625" customWidth="1"/>
+    <col min="11" max="11" width="3.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="3:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="3:18" ht="33.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="3:18" ht="33.65" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="L5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C6" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>15</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1"/>
       <c r="G10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C11" s="1"/>
       <c r="G11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="G12" s="1"/>
       <c r="L12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
       <c r="L13" s="1"/>
@@ -766,6 +796,20 @@
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="P2:R3"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Só é permitido números acima de 10" sqref="C5:C13" xr:uid="{5492946B-84AA-4027-B013-A51A12C60D3B}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Só é permitido menores que 10" sqref="G5:G13" xr:uid="{04534162-37CE-4A8A-9F9B-BB5C74E47A8D}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Digite um número maior ou igual a 10" sqref="L5:L13" xr:uid="{C4F7E030-A82B-41DF-ABAA-87562B4D3789}">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Atenção" error="Digite um número menor ou igual a 10" sqref="P5:P13" xr:uid="{05DB097B-EA6B-4C7A-9EEC-84AE927D8182}">
+      <formula1>10</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Excel/024_Validação+de+Dados+exemplo+3.xlsx
+++ b/Excel/024_Validação+de+Dados+exemplo+3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E485BEC-71FA-49B2-BFFB-53BDDFB05A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4794F1-4CE7-4B3E-81BC-5DCB9FAF8AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
+    <workbookView xWindow="3737" yWindow="3737" windowWidth="16114" windowHeight="13157" activeTab="1" xr2:uid="{1D135085-162F-4F6A-83EE-95534B59CC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A336C0-003C-4732-B650-95E6988755F8}">
   <dimension ref="C2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -711,7 +711,9 @@
       <c r="C5" s="1">
         <v>11</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="P5" s="1"/>
     </row>
@@ -720,7 +722,7 @@
         <v>10.1</v>
       </c>
       <c r="G6" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" s="1">
         <v>10</v>
@@ -732,7 +734,7 @@
     <row r="7" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C7" s="1"/>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L7" s="1">
         <v>15</v>
@@ -753,9 +755,7 @@
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
-      <c r="G9" s="1">
-        <v>3</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="L9" s="1"/>
       <c r="P9" s="1">
         <v>2</v>
